--- a/medicine/Enfance/Yak_Rivais/Yak_Rivais.xlsx
+++ b/medicine/Enfance/Yak_Rivais/Yak_Rivais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yak Rivais (pseudonyme de Yannick Rivais), né à Fougères (Ille-et-Vilaine) le 21 octobre 1939, est un écrivain qui se consacre principalement à la littérature jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien qu'essentiellement connu pour son travail d'écrivain, Yak Rivais a également été peintre  jusqu'en 1982 et instituteur, à Nogent-le-Rotrou[1] puis à Paris[2], jusqu'en 1994.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'essentiellement connu pour son travail d'écrivain, Yak Rivais a également été peintre  jusqu'en 1982 et instituteur, à Nogent-le-Rotrou puis à Paris, jusqu'en 1994.
 En tant qu'auteur, il commence à publier des livres pour adultes dès 1966 dont le tout-premier roman en images, L’Effrayant périple du Grand-Espion, chez Pierre Belfond et Aventures du général Francoquin, publié par Raymond Queneau en 1967, ainsi que sa suite, Le Condottiere en 1971, qui recevront tous deux le Prix de l’humour noir. Il a fait des dessins humoristiques, participant notamment à Fluide glacial, Spirou et à l'Almanach Vermot. Touche-à-tout, il a aussi écrit un roman pornographique, L'Éducation gentiment sale, sous le pseudonyme de Carlotta Simpson, en 1982, aux éditions de la Brigandine.
-Il a fait de la radio (France Culture), et dirigé des collections jeunesse aux éditions Belfond et Archipel. En 1996, il participe à un ouvrage collectif pro-serbe, intitulé Les Serbes et nous, aux éditions l'Âge d'homme, où il étrille plusieurs articles du Monde, de Libération[1] et de La Croix.
+Il a fait de la radio (France Culture), et dirigé des collections jeunesse aux éditions Belfond et Archipel. En 1996, il participe à un ouvrage collectif pro-serbe, intitulé Les Serbes et nous, aux éditions l'Âge d'homme, où il étrille plusieurs articles du Monde, de Libération et de La Croix.
 C’est en 1984 que Yak Rivais commence à écrire pour la jeunesse, des élèves lui réclamant des histoires à partir de leurs rêves (Série des Enfantastiques et série des jeux d’écriture). Sa carrière prend alors de l'essor et il devient écrivain spécialiste des jeux d’écriture. Il a reçu pour ses livres pour la jeunesse une trentaine de prix, dont le Prix Bretagne, le prix Côte d’opale, Cigale d’or de Marseille, prix de Cherbourg, Prix des Mille lecteurs, etc. Deux C.D.I de collèges et une école maternelle-primaire au Petit-Fougeray (35) portent son nom aujourd’hui.
 Ses écrits sont essentiellement ancrés sur le fantastique et les contes en particulier, et sur les jeux de mots. On peut considérer que ses livres Les Sorcières sont N.R.V, Contes du miroir et Le métro mé pa tro publiés en 1988-1989 sont à l'origine de l'essor des ateliers d'écriture dans les collèges (Yak Rivais animait des ateliers depuis 1959). Les Demoiselles d'A., centon moderne publié en 1979, est un roman constitué exclusivement de citations (750 au total) provenant de 406 auteurs différents, d'Eugène Ionesco à Honoré de Balzac. Il a reçu le Prix de l'anticonformisme, Grand jury des lettres pour ce livre, réédité en 2000 à la Mémoire du Livre. Il a été président des Prix de l’Humour Noir jusqu’en 2007.
 Parmi les derniers livres parus, citons Fables impertinentes, qui présente 60 fables de La Fontaine récrites fidèlement sur 60 règles de jeux d’écritures différents, Gargantua, une adaptation illustrée du texte de Rabelais pour les enfants, ou Une épée pour Gildas Larzac, un roman de cape et d'épée pour adolescents.
@@ -549,7 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L’Effrayant Périple du Grand Espion, éditions Pierre Belfond, Paris, 1966
 Série Les Enfantastiques (16 titres)
 Ça alors ! (1984)
@@ -562,7 +582,7 @@
 T'Occupe (1993)
 Mille sabord (1993)
 C'est enfantastique (1995)
-Diable ! (1996)[3]
+Diable ! (1996)
 Bizarre bazar (1996)
 C'est partiii ! (2000)
 Caramba  (2003)
@@ -632,7 +652,43 @@
 J'entends des bruits(2013)
 Aventures d'un lingot(2014)
 L'Affaire Lebois d'Ormant (2014)
-Essais
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yak_Rivais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yak_Rivais</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Grammaire impertinente (essai) (1989, réactualisée en 2008)
 140 jeux pour lire vite (1990)
 Jeux de langage et d'écriture, pour l’œil et l’oreille (livre scolaire) (1992, réactualisé en 2009)
